--- a/GitHubCheck/resources/newcustomerdata.xlsx
+++ b/GitHubCheck/resources/newcustomerdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rages\git\DemoJavaProj\GitHubCheck\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E214C-24D4-4392-BF63-C304D0506FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>Gender</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Date of Birth</t>
   </si>
@@ -54,9 +52,6 @@
   </si>
   <si>
     <t>satish</t>
-  </si>
-  <si>
-    <t>male</t>
   </si>
   <si>
     <t>near bhakarwadi</t>
@@ -83,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,25 +401,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -447,72 +443,63 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>31171</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>31171</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>452369</v>
+      </c>
+      <c r="G2">
+        <v>7258966</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>452369</v>
-      </c>
-      <c r="H2">
-        <v>7258966</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="B3" s="1">
+        <v>23047</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>4523369</v>
+      </c>
+      <c r="G3">
+        <v>16356565</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>23047</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>4523369</v>
-      </c>
-      <c r="H3">
-        <v>16356565</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
